--- a/sheet/ExtraCardData.xlsx
+++ b/sheet/ExtraCardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\datasheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48F8318-D8A2-45A7-A09F-D2EE1125FDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15889AF8-5655-4705-8D2D-210418A9E9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,41 +235,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续：正置的牌无法被横置。&lt;br&gt;
-进入墓地时：移除当前挑战牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>持续：弃牌堆每有1张牌，本牌点数加1。&lt;br&gt;
 进入墓地时：移除当前挑战牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>交锋前：将同一行中所有怪物牌依次放到房间区任意非空列的任意位置，然后破坏本牌。</t>
+  </si>
+  <si>
+    <t>从场上进入墓地时：将本牌向后移动一行。&lt;br&gt;
+进入弃牌堆时：将本牌放在房间区任意非空列最前方。</t>
+  </si>
+  <si>
+    <t>交锋前：如果本牌在敌人侧，房间区每有1张牌，本牌的点数加1。&lt;br&gt;
+进入墓地时：将本牌放回额外牌堆，从额外牌堆将1张《蓝王》牌洗入主牌堆，然后将弃牌堆顶1张牌放到房间区任意列最前方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋前：如果本牌在玩家侧，玩家每有1张手牌，本牌的点数加1。&lt;br&gt;
+进入墓地时：将本牌放回额外牌堆，从额外牌堆将1张《红王》牌洗入主牌堆，然后抽1张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印手指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>持续：不能被重抽。&lt;br&gt;
 离场时：回到玩家手牌。&lt;br&gt;
-从手牌发动：如果手牌中有合计5张手指牌，移除当前挑战牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋前：将同一行中所有怪物牌依次放到房间区任意非空列的任意位置，然后破坏本牌。</t>
-  </si>
-  <si>
-    <t>从场上进入墓地时：将本牌向后移动一行。&lt;br&gt;
-进入弃牌堆时：将本牌放在房间区任意非空列最前方。</t>
-  </si>
-  <si>
-    <t>交锋前：交锋中其他牌点数减1。&lt;br&gt;
+从手牌发动：如果手牌中有合计5张《封印手指》牌，移除当前挑战牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续：玩家不能使用道具牌。&lt;br&gt;
+进入墓地时：移除当前挑战牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋前：同一行中其他牌点数减1。&lt;br&gt;
 压制时：本牌点数减1，然后后退一行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋前：如果本牌在敌人侧，房间区每有1张牌，本牌的点数加1。&lt;br&gt;
-进入墓地时：将本牌放回额外牌堆，从额外牌堆将1张《蓝王》牌洗入主牌堆，然后将弃牌堆顶1张牌放到房间区任意列最前方。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋前：如果本牌在玩家侧，玩家每有1张手牌，本牌的点数加1。&lt;br&gt;
-进入墓地时：将本牌放回额外牌堆，从额外牌堆将1张《红王》牌洗入主牌堆，然后抽1张牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -656,16 +656,16 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -682,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="str">
         <f>IF(EXACT(B2, "改造陷阱"), "Transmuted trap", "Monster")</f>
@@ -713,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G20" si="0">IF(EXACT(B3, "改造陷阱"), "Transmuted trap", "Monster")</f>
@@ -732,7 +732,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -744,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -775,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -806,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -837,7 +837,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -899,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -932,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -963,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1157,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1189,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="19" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>

--- a/sheet/ExtraCardData.xlsx
+++ b/sheet/ExtraCardData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15889AF8-5655-4705-8D2D-210418A9E9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3330156D-CB7E-41FC-B440-BEA6C5B49079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>cardName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardNameEn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -238,9 +234,6 @@
     <t>持续：弃牌堆每有1张牌，本牌点数加1。&lt;br&gt;
 进入墓地时：移除当前挑战牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋前：将同一行中所有怪物牌依次放到房间区任意非空列的任意位置，然后破坏本牌。</t>
   </si>
   <si>
     <t>从场上进入墓地时：将本牌向后移动一行。&lt;br&gt;
@@ -274,6 +267,71 @@
   <si>
     <t>交锋前：同一行中其他牌点数减1。&lt;br&gt;
 压制时：本牌点数减1，然后后退一行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋前：将同一行中所有怪物牌依次放到房间区任意非空列的任意位置，然后将本牌送墓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎机护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战时可以发动：如果参与战斗的所有牌名称相同，则将那些牌全部送墓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叛徒护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将1张手牌放置在房间区任意槽位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漏护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战时可以发动：本次战斗不消耗时间。&lt;br&gt;
+被动：弃牌堆的牌不能被其他牌的效果移出弃牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blueprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻开主牌堆前3张陷阱牌，然后选1张，从额外牌堆选其任意改造版本将其替换，这之后，将翻开的牌洗回主牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dungeonpedia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从主牌堆和备牌堆中各翻3张牌，然后从备牌堆翻出的牌中选1张牌替换主牌堆翻出的3张牌中的任意1张，这之后，将这些牌洗回各自的牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下城百科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战利品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -653,27 +711,27 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -682,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f>IF(EXACT(B2, "改造陷阱"), "Transmuted trap", "Monster")</f>
+        <f t="shared" ref="G2:G25" si="0">IF(EXACT(B2, "改造陷阱"), "Transmuted trap", IF(EXACT(B2, "怪物"), "Monster", IF(EXACT(B2, "道具"), "Item", "Loot")))</f>
         <v>Transmuted trap</v>
       </c>
       <c r="H2" s="3"/>
@@ -701,10 +759,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -713,29 +771,29 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(EXACT(B3, "改造陷阱"), "Transmuted trap", "Monster")</f>
+        <f t="shared" si="0"/>
         <v>Transmuted trap</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J20" si="1">IF(EXACT(B3, "改造陷阱"), "trap.png", "monster.png")</f>
+        <f t="shared" ref="J3:J23" si="1">IF(EXACT(B3, "改造陷阱"), "trap.png", "monster.png")</f>
         <v>trap.png</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K20" si="2">IF(EXACT(B3, "改造陷阱"), "trap_inverted.png", "monster_inverted.png")</f>
+        <f t="shared" ref="K3:K23" si="2">IF(EXACT(B3, "改造陷阱"), "trap_inverted.png", "monster_inverted.png")</f>
         <v>trap_inverted.png</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -744,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -763,10 +821,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -775,7 +833,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -794,10 +852,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -806,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -825,10 +883,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -837,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -856,10 +914,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -868,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -887,10 +945,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -899,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -907,7 +965,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="1"/>
@@ -920,10 +978,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -932,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -951,10 +1009,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -963,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -982,14 +1040,14 @@
     </row>
     <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -997,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1014,13 +1072,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1029,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1046,13 +1104,13 @@
     </row>
     <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1061,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1078,13 +1136,13 @@
     </row>
     <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1093,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1110,13 +1168,13 @@
     </row>
     <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1125,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1142,13 +1200,13 @@
     </row>
     <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1157,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1174,13 +1232,13 @@
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1189,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1206,13 +1264,13 @@
     </row>
     <row r="19" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1221,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1238,13 +1296,13 @@
     </row>
     <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1253,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1266,6 +1324,150 @@
       <c r="K20" t="str">
         <f t="shared" si="2"/>
         <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Item</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v>monster.png</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Item</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v>monster.png</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f>IF(EXACT(B23, "改造陷阱"), "Transmuted trap", IF(EXACT(B23, "怪物"), "Monster", IF(EXACT(B23, "道具"), "Item", "Loot")))</f>
+        <v>Item</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>monster.png</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Loot</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Loot</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ExtraCardData.xlsx
+++ b/sheet/ExtraCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3330156D-CB7E-41FC-B440-BEA6C5B49079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F3FEB0-828F-48F1-88DE-8CAD643C0F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="4200" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
   <si>
     <t>cardName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,30 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流沙：广域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>落穴：广域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尖刺：钢铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷气喷口：广域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹箭：广域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚石：松动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>传送阵：短距</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爆桶：易爆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地雷：广域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tags</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>落穴：松动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iconFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,34 +147,6 @@
   </si>
   <si>
     <t>昆虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续：同区域中，位于本牌前方的怪物牌点数变为1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开战时：检查本牌前方的所有行，如果行中怪物牌数量大于本牌点数，那一行所有怪物牌送墓。如果有怪物牌因此被送墓，则在检查完之后将本牌也送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋前：同一行中怪物牌数量大于本牌点数时，同一行中所有怪物牌送墓，然后本牌送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋前：同一行中所有怪物牌点数减2。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续：同区域中，位于本牌前方的怪物牌点数不大于本牌时，将其横置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同区域中，位于本牌前方的怪物牌发动效果后：那张怪物牌送墓，然后本牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同区域中，有牌移入本牌前方任意一行后：将那一行所有牌送墓，然后本牌送墓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -220,14 +156,6 @@
   </si>
   <si>
     <t>进入墓地时：移除当前挑战牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从场上进入墓地时：同区域中位于本牌后方的所有点数不大于本牌的牌送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从场上进入墓地时：同区域中，与本牌在同一行的所有点数不大于本牌的牌送墓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交锋前：将同一行中所有怪物牌依次放到房间区任意非空列的任意位置，然后将本牌送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>老虎机护符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,6 +256,123 @@
   </si>
   <si>
     <t>战利品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷：高爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷：灵敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有牌移入本牌相邻槽位中时：使那个槽位中所有牌点数减1，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有牌移入本牌所在槽位中时：使同槽位及相邻槽位所有牌点数减1，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战时：战场中所有怪物牌点数变为1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流沙：大范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落穴：巨型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战时：如果本牌所在槽位和对位槽位的怪物牌合计数量不小于本牌点数，则消灭战场所有怪物牌，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋前：如果本牌所在槽位和对位槽位有怪物牌，则将那些怪物牌全部消灭，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落穴：灵敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖刺：交错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：横置本牌，然后选1个相邻槽位，其中所有牌点数减1。&lt;br&gt;
+复位时：同槽位所有牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖刺：简易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋时：使本牌所在槽位和对位槽位的所有怪物牌点数减1，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷气喷口：强力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：横置本牌所在槽位和所有相邻槽位中的所有怪物牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹箭：狙击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同区域中，有牌发动效果后：消灭那张怪物牌，然后本牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚石：沉重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时：将本牌移动到相邻槽位中而不是送墓，然后使本牌和那个槽位中所有牌点数减2，该效果可重复至本牌点数为0为止。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋时：如果本牌所在槽位和对位槽位有怪物牌，则将那些怪物牌依次放在其所在区域的任意槽位，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆桶：不稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被移动时：目标槽位和起始槽位的所有牌点数减1，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石柱：碎裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时：选与本牌在同一行或同一列的其他牌，共计X张，X与本牌点数相同，然后使那些牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟爆弹：追猎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：移动到1个相邻槽位，然后点数减1，本牌点数因此降至0时，消灭弃牌堆第1张怪物牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋时：将对位槽位1张怪物牌移动到本牌所在槽位，然后将本牌送墓并跳过这一次交锋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗门：反向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -711,39 +752,39 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G25" si="0">IF(EXACT(B2, "改造陷阱"), "Transmuted trap", IF(EXACT(B2, "怪物"), "Monster", IF(EXACT(B2, "道具"), "Item", "Loot")))</f>
+        <f t="shared" ref="G2:G30" si="0">IF(EXACT(B2, "改造陷阱"), "Transmuted trap", IF(EXACT(B2, "怪物"), "Monster", IF(EXACT(B2, "道具"), "Item", "Loot")))</f>
         <v>Transmuted trap</v>
       </c>
       <c r="H2" s="3"/>
@@ -759,19 +800,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -780,20 +821,20 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J23" si="1">IF(EXACT(B3, "改造陷阱"), "trap.png", "monster.png")</f>
+        <f t="shared" ref="J3:J28" si="1">IF(EXACT(B3, "改造陷阱"), "trap.png", "monster.png")</f>
         <v>trap.png</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K23" si="2">IF(EXACT(B3, "改造陷阱"), "trap_inverted.png", "monster_inverted.png")</f>
+        <f t="shared" ref="K3:K28" si="2">IF(EXACT(B3, "改造陷阱"), "trap_inverted.png", "monster_inverted.png")</f>
         <v>trap_inverted.png</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -802,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -819,21 +860,21 @@
         <v>trap_inverted.png</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>40</v>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -852,19 +893,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>41</v>
+      <c r="F6" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -883,19 +924,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -914,19 +955,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -945,28 +986,26 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Transmuted trap</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="I9" s="3"/>
       <c r="J9" t="str">
         <f t="shared" si="1"/>
         <v>trap.png</v>
@@ -978,26 +1017,28 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Transmuted trap</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J10" t="str">
         <f t="shared" si="1"/>
         <v>trap.png</v>
@@ -1009,10 +1050,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1020,15 +1061,15 @@
       <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
+      <c r="F11" t="s">
+        <v>75</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Transmuted trap</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="3"/>
       <c r="J11" t="str">
         <f t="shared" si="1"/>
         <v>trap.png</v>
@@ -1038,248 +1079,221 @@
         <v>trap_inverted.png</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Monster</v>
-      </c>
+        <v>Transmuted trap</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
       <c r="J12" t="str">
         <f t="shared" si="1"/>
-        <v>monster.png</v>
+        <v>trap.png</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="2"/>
-        <v>monster_inverted.png</v>
+        <v>trap_inverted.png</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Transmuted trap</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>trap.png</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v>trap_inverted.png</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Monster</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="1"/>
-        <v>monster.png</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="2"/>
-        <v>monster_inverted.png</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Monster</v>
-      </c>
+        <v>Transmuted trap</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
-        <v>monster.png</v>
+        <v>trap.png</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
-        <v>monster_inverted.png</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+        <v>trap_inverted.png</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Monster</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v>monster.png</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="2"/>
-        <v>monster_inverted.png</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Monster</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="1"/>
-        <v>monster.png</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="2"/>
-        <v>monster_inverted.png</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17">
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Monster</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>monster.png</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="3" t="str">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Monster</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="1"/>
         <v>monster.png</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K18" t="str">
         <f t="shared" si="2"/>
         <v>monster_inverted.png</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Monster</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="1"/>
-        <v>monster.png</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="2"/>
-        <v>monster_inverted.png</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1296,178 +1310,338 @@
     </row>
     <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Monster</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
+        <v>monster.png</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Monster</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v>monster.png</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Monster</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v>monster.png</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Monster</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>monster.png</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Monster</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v>monster.png</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Monster</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="1"/>
+        <v>monster.png</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Item</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="1"/>
+        <v>monster.png</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Item</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
+        <v>monster.png</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f>IF(EXACT(B28, "改造陷阱"), "Transmuted trap", IF(EXACT(B28, "怪物"), "Monster", IF(EXACT(B28, "道具"), "Item", "Loot")))</f>
+        <v>Item</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="1"/>
+        <v>monster.png</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Monster</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="1"/>
-        <v>monster.png</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="2"/>
-        <v>monster_inverted.png</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Item</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="1"/>
-        <v>monster.png</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="2"/>
-        <v>monster_inverted.png</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Item</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="1"/>
-        <v>monster.png</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="2"/>
-        <v>monster_inverted.png</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f>IF(EXACT(B23, "改造陷阱"), "Transmuted trap", IF(EXACT(B23, "怪物"), "Monster", IF(EXACT(B23, "道具"), "Item", "Loot")))</f>
-        <v>Item</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="1"/>
-        <v>monster.png</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="2"/>
-        <v>monster_inverted.png</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
         <v>2</v>
       </c>
-      <c r="F24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="3" t="str">
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Loot</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="H29" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="3" t="str">
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Loot</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>65</v>
+      <c r="H30" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ExtraCardData.xlsx
+++ b/sheet/ExtraCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F3FEB0-828F-48F1-88DE-8CAD643C0F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668EA07A-6A5D-4E41-A0A0-CA86D9FA3D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="4200" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>cardName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不死，构造体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冠军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,26 +106,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时空吞噬者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>恶魔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>野兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>typeEn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,51 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续：同一列中，本牌后方每有1张牌，本牌点数加1。&lt;br&gt;
-离场时：将本牌放回额外牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入墓地时：移除当前挑战牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续：弃牌堆每有1张牌，本牌点数加1。&lt;br&gt;
-进入墓地时：移除当前挑战牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从场上进入墓地时：将本牌向后移动一行。&lt;br&gt;
-进入弃牌堆时：将本牌放在房间区任意非空列最前方。</t>
-  </si>
-  <si>
-    <t>交锋前：如果本牌在敌人侧，房间区每有1张牌，本牌的点数加1。&lt;br&gt;
-进入墓地时：将本牌放回额外牌堆，从额外牌堆将1张《蓝王》牌洗入主牌堆，然后将弃牌堆顶1张牌放到房间区任意列最前方。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋前：如果本牌在玩家侧，玩家每有1张手牌，本牌的点数加1。&lt;br&gt;
-进入墓地时：将本牌放回额外牌堆，从额外牌堆将1张《红王》牌洗入主牌堆，然后抽1张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>封印手指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续：不能被重抽。&lt;br&gt;
-离场时：回到玩家手牌。&lt;br&gt;
-从手牌发动：如果手牌中有合计5张《封印手指》牌，移除当前挑战牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续：玩家不能使用道具牌。&lt;br&gt;
-进入墓地时：移除当前挑战牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋前：同一行中其他牌点数减1。&lt;br&gt;
-压制时：本牌点数减1，然后后退一行。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -373,6 +309,43 @@
   </si>
   <si>
     <t>暗门：反向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离场时：如果场上有其他牌，则将本牌放在房间区任意槽位中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续：相邻槽位每有1张“不死”牌，本牌点数加1。&lt;br&gt;
+入场时：将墓地前2张“不死”牌分别放到本牌的两个不同的相邻槽位中。&lt;br&gt;
+离场时：如果墓地中没有《命匣》，则将本牌放回额外牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续：不能将《沙虫》以外的牌放在本牌所在槽位。&lt;br&gt;
+离场时：将本牌放回额外牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续：玩家每有1张横置的道具牌，本牌点数加2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：从额外牌堆将2张《沙墙》牌分别放在本牌所在槽位和对位，然后本牌移动一格，并使移动后本牌所在槽位及对位所有其他牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战时：回到玩家手牌。&lt;br&gt;
+从手牌发动：将本牌放回主牌堆，从弃牌堆或墓地选1张《手指》牌加入手牌。&lt;br&gt;
+回合结束时：场上有合计5张《封印手指》牌时，消灭所有《封印手指》牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -752,24 +725,24 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -781,10 +754,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G30" si="0">IF(EXACT(B2, "改造陷阱"), "Transmuted trap", IF(EXACT(B2, "怪物"), "Monster", IF(EXACT(B2, "道具"), "Item", "Loot")))</f>
+        <f t="shared" ref="G2:G28" si="0">IF(EXACT(B2, "改造陷阱"), "Transmuted trap", IF(EXACT(B2, "怪物"), "Monster", IF(EXACT(B2, "道具"), "Item", "Loot")))</f>
         <v>Transmuted trap</v>
       </c>
       <c r="H2" s="3"/>
@@ -800,7 +773,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -812,7 +785,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -821,17 +794,17 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J28" si="1">IF(EXACT(B3, "改造陷阱"), "trap.png", "monster.png")</f>
+        <f t="shared" ref="J3:J26" si="1">IF(EXACT(B3, "改造陷阱"), "trap.png", "monster.png")</f>
         <v>trap.png</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K28" si="2">IF(EXACT(B3, "改造陷阱"), "trap_inverted.png", "monster_inverted.png")</f>
+        <f t="shared" ref="K3:K26" si="2">IF(EXACT(B3, "改造陷阱"), "trap_inverted.png", "monster_inverted.png")</f>
         <v>trap_inverted.png</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -843,7 +816,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -862,7 +835,7 @@
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -874,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -893,7 +866,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -905,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -924,7 +897,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -936,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -955,7 +928,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -967,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -986,7 +959,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -998,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1029,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1050,7 +1023,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1062,7 +1035,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1081,7 +1054,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1093,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1112,7 +1085,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1124,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1143,7 +1116,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1155,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1174,7 +1147,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1186,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1194,7 +1167,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1206,13 +1179,13 @@
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1229,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1252,7 +1225,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1260,9 +1233,7 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Monster</v>
@@ -1276,56 +1247,56 @@
         <v>monster_inverted.png</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Monster</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>monster.png</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_inverted.png</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>16</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Monster</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="1"/>
-        <v>monster.png</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="2"/>
-        <v>monster_inverted.png</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1342,22 +1313,22 @@
     </row>
     <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1374,22 +1345,22 @@
     </row>
     <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1406,13 +1377,13 @@
     </row>
     <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1421,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1436,28 +1407,28 @@
         <v>monster_inverted.png</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Monster</v>
+        <v>Item</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="1"/>
@@ -1468,28 +1439,28 @@
         <v>monster_inverted.png</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Monster</v>
+        <v>Item</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="1"/>
@@ -1500,15 +1471,15 @@
         <v>monster_inverted.png</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1517,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(EXACT(B26, "改造陷阱"), "Transmuted trap", IF(EXACT(B26, "怪物"), "Monster", IF(EXACT(B26, "道具"), "Item", "Loot")))</f>
         <v>Item</v>
       </c>
       <c r="J26" t="str">
@@ -1534,114 +1505,50 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Item</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="1"/>
-        <v>monster.png</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="2"/>
-        <v>monster_inverted.png</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+        <v>Loot</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>45</v>
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
       </c>
       <c r="G28" s="3" t="str">
-        <f>IF(EXACT(B28, "改造陷阱"), "Transmuted trap", IF(EXACT(B28, "怪物"), "Monster", IF(EXACT(B28, "道具"), "Item", "Loot")))</f>
-        <v>Item</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="1"/>
-        <v>monster.png</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="2"/>
-        <v>monster_inverted.png</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Loot</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Loot</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>46</v>
+      <c r="H28" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ExtraCardData.xlsx
+++ b/sheet/ExtraCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668EA07A-6A5D-4E41-A0A0-CA86D9FA3D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE7F64D-6BEB-4B86-80EC-3981C3C991BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,16 +154,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将1张手牌放置在房间区任意槽位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沙漏护符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开战时可以发动：本次战斗不消耗时间。&lt;br&gt;
-被动：弃牌堆的牌不能被其他牌的效果移出弃牌堆。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -309,10 +300,6 @@
   </si>
   <si>
     <t>暗门：反向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离场时：如果场上有其他牌，则将本牌放在房间区任意槽位中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -335,17 +322,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续：玩家每有1张横置的道具牌，本牌点数加2。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时：从额外牌堆将2张《沙墙》牌分别放在本牌所在槽位和对位，然后本牌移动一格，并使移动后本牌所在槽位及对位所有其他牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开战时：回到玩家手牌。&lt;br&gt;
 从手牌发动：将本牌放回主牌堆，从弃牌堆或墓地选1张《手指》牌加入手牌。&lt;br&gt;
 回合结束时：场上有合计5张《封印手指》牌时，消灭所有《封印手指》牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将1张手牌放置在房间区任意槽位，然后抽1张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战前可以发动：本次战斗结束后，不消耗时间。&lt;br&gt;
+被动：弃牌堆的牌不能被其他牌的效果移出弃牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离场时：如果场上有其他牌，则将本牌放在房间区任意槽位中。&lt;br&gt;
+回合结束时：玩家受到1伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续：房间区每有1张“恶魔”牌，本牌点数加1。&lt;br&gt;
+回合结束时：玩家选1张道具牌横置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：如果有相邻槽位没有《沙墙》，则从使本牌所在槽位所有其他牌点数减1，然后从额外牌堆将1张《沙墙》牌放在本牌所在槽位，这之后，将本牌移动一个没有《沙墙》牌的相邻槽位中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,7 +744,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -754,7 +756,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G28" si="0">IF(EXACT(B2, "改造陷阱"), "Transmuted trap", IF(EXACT(B2, "怪物"), "Monster", IF(EXACT(B2, "道具"), "Item", "Loot")))</f>
@@ -773,7 +775,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -785,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -804,7 +806,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -816,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -835,7 +837,7 @@
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -847,7 +849,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -866,7 +868,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -878,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -897,7 +899,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -909,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -928,7 +930,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -940,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -959,7 +961,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -971,7 +973,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1002,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1023,7 +1025,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1035,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1054,7 +1056,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1066,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1085,7 +1087,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1097,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1116,7 +1118,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1128,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1147,7 +1149,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1159,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1167,7 +1169,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1179,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1202,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1247,7 +1249,7 @@
         <v>monster_inverted.png</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1264,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1279,7 +1281,7 @@
         <v>monster_inverted.png</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1322,13 +1324,13 @@
         <v>22</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1345,13 +1347,13 @@
     </row>
     <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1360,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1392,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1456,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1473,7 +1475,7 @@
     </row>
     <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1488,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G26" s="3" t="str">
         <f>IF(EXACT(B26, "改造陷阱"), "Transmuted trap", IF(EXACT(B26, "怪物"), "Monster", IF(EXACT(B26, "道具"), "Item", "Loot")))</f>
@@ -1505,50 +1507,44 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Loot</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Loot</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ExtraCardData.xlsx
+++ b/sheet/ExtraCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE7F64D-6BEB-4B86-80EC-3981C3C991BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21634050-16DA-4DF0-ACED-9EE438998B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,17 +337,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离场时：如果场上有其他牌，则将本牌放在房间区任意槽位中。&lt;br&gt;
-回合结束时：玩家受到1伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>持续：房间区每有1张“恶魔”牌，本牌点数加1。&lt;br&gt;
 回合结束时：玩家选1张道具牌横置。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回合结束时：如果有相邻槽位没有《沙墙》，则从使本牌所在槽位所有其他牌点数减1，然后从额外牌堆将1张《沙墙》牌放在本牌所在槽位，这之后，将本牌移动一个没有《沙墙》牌的相邻槽位中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离场时：如果同区域内其他槽位有牌，则将本牌放在房间区任意槽位中并横置。&lt;br&gt;
+回合结束时：玩家受到1伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1330,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
